--- a/medicine/Sexualité et sexologie/Odile_Fillod/Odile_Fillod.xlsx
+++ b/medicine/Sexualité et sexologie/Odile_Fillod/Odile_Fillod.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Odile Fillod, née en 1972 à Besançon (France), est une ingénieure et chercheuse indépendante française. Elle est notamment connue pour avoir conçu un modèle stylisé de clitoris imprimable en 3D.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Odile Fillod est ingénieure diplômée de l'École centrale Paris (1994)[1] et titulaire d'un DEA de Sciences cognitives (1995).
-Elle est depuis 2008 chercheuse en Études sociales des sciences biomédicales. Ses recherches portent notamment sur la littérature scientifique participant à la naturalisation du genre, et sur les biais dans la transmission des connaissances qui sont à même de contrer cette naturalisation. En lien avec cette activité, elle a créé le blog Allodoxia[2] sur lequel elle développe des études de cas analysant la distorsion entre les données factuelles rapportées dans les articles de revues scientifiques et ce que divers intermédiaires culturels leur font dire. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Odile Fillod est ingénieure diplômée de l'École centrale Paris (1994) et titulaire d'un DEA de Sciences cognitives (1995).
+Elle est depuis 2008 chercheuse en Études sociales des sciences biomédicales. Ses recherches portent notamment sur la littérature scientifique participant à la naturalisation du genre, et sur les biais dans la transmission des connaissances qui sont à même de contrer cette naturalisation. En lien avec cette activité, elle a créé le blog Allodoxia sur lequel elle développe des études de cas analysant la distorsion entre les données factuelles rapportées dans les articles de revues scientifiques et ce que divers intermédiaires culturels leur font dire. 
 Elle a également créé un site web dédié au clitoris (Clit'info) et mené des recherches sur l'histoire médicale de l'organe.
 De 2020 à 2022, Odile Fillod publie régulièrement des posts Facebook dans lesquels elle met à jour et commente des statistiques de suivi de la pandémie Covid-19 en France. La dernière version de ces statistiques est accessible sur son blog Allodoxia.[source secondaire nécessaire]
 </t>
@@ -545,13 +559,15 @@
           <t>Clitoris en 3D</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sur la base de la littérature scientifique disponible début 2016, Fillod a défini une taille et une forme moyennes plausibles du clitoris, puis a sollicité l'aide du fab lab du «Carrefour numérique» de la Cité des sciences et de l’industrie à Paris pour créer un modèle stylisé imprimable en 3D de cet organe[3],[4],[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur la base de la littérature scientifique disponible début 2016, Fillod a défini une taille et une forme moyennes plausibles du clitoris, puis a sollicité l'aide du fab lab du «Carrefour numérique» de la Cité des sciences et de l’industrie à Paris pour créer un modèle stylisé imprimable en 3D de cet organe.
 			Modèle v1, avril 2016.
 			Modèle v2, décembre 2016.
-Avec la conception de ce modèle, et surtout la diffusion du fichier imprimable en accès libre sur Internet, Fillod a participé à l'amélioration de la représentation du clitoris dans les manuels scolaires français[6],[2],[7]. Avec cet outil pédagogique, elle espère contribuer à améliorer la connaissance du clitoris et plus largement œuvrer à l'égalité[8],[9],[10].
-La création de ce modèle a connu un retentissement médiatique international[11].
+Avec la conception de ce modèle, et surtout la diffusion du fichier imprimable en accès libre sur Internet, Fillod a participé à l'amélioration de la représentation du clitoris dans les manuels scolaires français. Avec cet outil pédagogique, elle espère contribuer à améliorer la connaissance du clitoris et plus largement œuvrer à l'égalité.
+La création de ce modèle a connu un retentissement médiatique international.
 </t>
         </is>
       </c>
@@ -580,7 +596,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>« De la nature des petits arrangements entre les sexes », Savoir/agir, no 20,‎ 2012, p. 29-34 (DOI 10.3917/sava.020.0029)
 « Les sciences et la nature sexuée du psychisme au tournant du XXIe siècle », Genre, sexualité et société, no 12,‎ 2014 (DOI 10.4000/gss.3205)
